--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2860257.905340051</v>
+        <v>2856120.748089899</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>286.5888679426061</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>375.7059647727295</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,16 +828,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>38.22943095721728</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>28.90659665391124</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -910,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>64.89419709690489</v>
       </c>
       <c r="H5" t="n">
-        <v>180.4174897749672</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,13 +1056,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>99.88325987682892</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1071,10 +1071,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>171.1971464172148</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>272.8268065986606</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247055</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>102.2344596165031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269627</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705016</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>50.98074812542834</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>183.3954576110936</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1612,10 +1612,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>97.24762927924141</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2007,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2811815126421274</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2241,22 +2241,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>119.6760079449695</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>165.0963079021241</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2724,10 +2724,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>140.575894358866</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>55.52079624060555</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>39.39795577638954</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3195,16 +3195,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>33.0162797694411</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3240,13 +3240,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>176.76214411214</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>65.67353929277157</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>9.146142788180832</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>35.41770597126702</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3906,16 +3906,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>258.4213586456705</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1671.539306344596</v>
+        <v>728.3028554854568</v>
       </c>
       <c r="C2" t="n">
-        <v>1302.576789404184</v>
+        <v>359.3403385450451</v>
       </c>
       <c r="D2" t="n">
-        <v>944.3110907974335</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974335</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078259</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>2437.640120926626</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W2" t="n">
-        <v>2437.640120926626</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="X2" t="n">
-        <v>2437.640120926626</v>
+        <v>1505.04202752539</v>
       </c>
       <c r="Y2" t="n">
-        <v>2058.139146408717</v>
+        <v>1114.902695549579</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049857</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>704.6174692164192</v>
+        <v>1011.026595295463</v>
       </c>
       <c r="C4" t="n">
-        <v>704.6174692164192</v>
+        <v>842.0904123675558</v>
       </c>
       <c r="D4" t="n">
-        <v>554.5008298040834</v>
+        <v>691.9737729552201</v>
       </c>
       <c r="E4" t="n">
-        <v>406.5877362216903</v>
+        <v>544.0606793728269</v>
       </c>
       <c r="F4" t="n">
-        <v>367.9721493962183</v>
+        <v>397.1707318749166</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>229.1842671831951</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>80.44536904670133</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U4" t="n">
-        <v>1114.255484944676</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="V4" t="n">
-        <v>1114.255484944676</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="W4" t="n">
-        <v>1114.255484944676</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="X4" t="n">
-        <v>886.2659340466589</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="Y4" t="n">
-        <v>886.2659340466589</v>
+        <v>1192.675060125702</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1445.965582893149</v>
+        <v>1217.629781995562</v>
       </c>
       <c r="C5" t="n">
-        <v>1445.965582893149</v>
+        <v>1217.629781995562</v>
       </c>
       <c r="D5" t="n">
-        <v>1445.965582893149</v>
+        <v>1217.629781995562</v>
       </c>
       <c r="E5" t="n">
-        <v>1060.177330294905</v>
+        <v>831.841529397318</v>
       </c>
       <c r="F5" t="n">
-        <v>649.1914255052973</v>
+        <v>420.8556246077105</v>
       </c>
       <c r="G5" t="n">
-        <v>233.4866752295861</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
         <v>51.2467865680031</v>
@@ -4567,25 +4567,25 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362813</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q5" t="n">
         <v>2542.25058172385</v>
@@ -4600,19 +4600,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W5" t="n">
-        <v>2209.570673130041</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="X5" t="n">
-        <v>1836.104914868961</v>
+        <v>1604.229622059684</v>
       </c>
       <c r="Y5" t="n">
-        <v>1445.965582893149</v>
+        <v>1604.229622059684</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1227.201367341571</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1861.38035112061</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>721.6094252585019</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>620.7172435647353</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>620.7172435647353</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>620.7172435647353</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
         <v>51.2467865680031</v>
@@ -4755,22 +4755,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269232</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1413.467639269232</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1413.467639269232</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1124.050469232272</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X7" t="n">
-        <v>1124.050469232272</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y7" t="n">
-        <v>903.2578900887416</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1167.517642266217</v>
+        <v>1118.442187461269</v>
       </c>
       <c r="C8" t="n">
-        <v>798.5551253258054</v>
+        <v>749.4796705208578</v>
       </c>
       <c r="D8" t="n">
-        <v>440.289426719055</v>
+        <v>749.4796705208578</v>
       </c>
       <c r="E8" t="n">
-        <v>440.289426719055</v>
+        <v>749.4796705208578</v>
       </c>
       <c r="F8" t="n">
-        <v>433.3439259698515</v>
+        <v>742.5341697716543</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345445</v>
+        <v>326.8294194959432</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362813</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816077</v>
+        <v>442.5171852816093</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872908</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740838</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764995</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926624</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532449</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.313418796628</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V8" t="n">
-        <v>1644.250531453058</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W8" t="n">
-        <v>1644.250531453058</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X8" t="n">
-        <v>1270.784773191978</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="Y8" t="n">
-        <v>1167.517642266217</v>
+        <v>1505.042027525391</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>238.427330237016</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605186</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L9" t="n">
-        <v>979.6730931919901</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1342.93511215121</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1730.220240748155</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>2062.290675924316</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>305.8408313751036</v>
+        <v>716.5983551657496</v>
       </c>
       <c r="C10" t="n">
-        <v>305.8408313751036</v>
+        <v>547.6621722378427</v>
       </c>
       <c r="D10" t="n">
-        <v>305.8408313751036</v>
+        <v>397.5455328255069</v>
       </c>
       <c r="E10" t="n">
-        <v>305.8408313751036</v>
+        <v>249.6324392431138</v>
       </c>
       <c r="F10" t="n">
-        <v>305.8408313751036</v>
+        <v>102.7424917452035</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312191</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020474</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693231</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096583</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4989,25 +4989,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1216.838891429093</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1216.838891429093</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>962.1544032232065</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>672.7372331862459</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X10" t="n">
-        <v>487.4892962053433</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y10" t="n">
-        <v>487.4892962053433</v>
+        <v>898.2468199959893</v>
       </c>
     </row>
     <row r="11">
@@ -5035,55 +5035,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5260,7 +5260,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5284,16 +5284,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5512,22 +5512,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>869.9745311434712</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>701.0383482155643</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>550.9217088032285</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>403.0086152208354</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>403.0086152208354</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>235.8125159357153</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>94.10068477791341</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.622995973711</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5731,40 +5731,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5773,28 +5773,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>634.927936255316</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C22" t="n">
-        <v>634.927936255316</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5937,25 +5937,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2326.07822707019</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2106.476762093131</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1817.401535437329</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1562.717047231442</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1273.299877194481</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>1045.310326296464</v>
       </c>
       <c r="Y22" t="n">
-        <v>816.5764010855557</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="23">
@@ -5968,25 +5968,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
@@ -5995,13 +5995,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,28 +6010,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6129,16 +6129,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2951.54259528685</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C28" t="n">
-        <v>2782.606412358944</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D28" t="n">
-        <v>2632.489772946608</v>
+        <v>550.9217088032285</v>
       </c>
       <c r="E28" t="n">
-        <v>2484.576679364215</v>
+        <v>403.0086152208354</v>
       </c>
       <c r="F28" t="n">
-        <v>2337.686731866304</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4634.751540034345</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4634.751540034345</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>4415.150075057287</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>4126.074848401485</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V28" t="n">
-        <v>3871.390360195598</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W28" t="n">
-        <v>3581.973190158637</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X28" t="n">
-        <v>3353.98363926062</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y28" t="n">
-        <v>3133.19106011709</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
@@ -6457,25 +6457,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,31 +6484,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>847.644273983533</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711973</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6657,16 +6657,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1715.635642676658</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1426.218472639697</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1198.22892174168</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3342.537229081859</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C34" t="n">
-        <v>3173.601046153952</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741616</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159223</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>209.2531439449482</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4262.384993990607</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>4262.384993990607</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>4262.384993990607</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3972.967823953646</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6934,7 +6934,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
         <v>317.6151975578602</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L39" t="n">
-        <v>716.6687843969308</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2824.769373306002</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>2655.833190378095</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>2655.833190378095</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>2655.833190378095</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>2655.833190378095</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>2488.637091092975</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>2346.925259935173</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>4507.978318053497</v>
+        <v>2411.187623003223</v>
       </c>
       <c r="T40" t="n">
-        <v>4288.376853076438</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U40" t="n">
-        <v>3999.301626420636</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V40" t="n">
-        <v>3744.61713821475</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W40" t="n">
-        <v>3455.199968177789</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X40" t="n">
-        <v>3227.210417279772</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y40" t="n">
-        <v>3006.417838136242</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004712</v>
@@ -7399,22 +7399,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>724.7519863413023</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1899.284239455937</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1644.59975125005</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1355.182581213089</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1127.193030315072</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>906.400451171542</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7636,16 +7636,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7657,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
         <v>317.6151975578602</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>265.0304328515151</v>
+        <v>114.3555089013353</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179983</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>6.454437538929881</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>20.93778120154991</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>138.9393975111067</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154995</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>154.8900140445866</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>80.98465480592341</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24129,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>61.35027805667508</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.48834544997069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24612,10 +24612,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>4.845153664065208</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>10.85445046951614</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>212.7396875474385</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25083,16 +25083,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>107.2784330767828</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25128,13 +25128,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>40.64330621514821</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>114.1584408891657</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>72.11969353038469</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>145.6085800303776</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25794,16 +25794,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>27.76311574357368</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>121.5862749664513</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>773913.2777058951</v>
+        <v>773913.277705895</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>753929.9322934034</v>
+        <v>753929.9322934035</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>753929.9322934035</v>
+        <v>753929.9322934034</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>753929.9322934037</v>
+        <v>753929.9322934034</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>753929.9322934037</v>
+        <v>753929.9322934034</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>753929.9322934035</v>
+        <v>753929.9322934034</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>753929.9322934035</v>
+        <v>753929.9322934037</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>753929.9322934037</v>
+        <v>753929.9322934035</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380341</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="F2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="G2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="H2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="I2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="J2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="K2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="L2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="M2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="N2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442546</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245462</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="C4" t="n">
         <v>134318.0002618638</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
@@ -26435,7 +26435,7 @@
         <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731973</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
         <v>8117.312426731974</v>
@@ -26444,16 +26444,16 @@
         <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426732036</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732038</v>
       </c>
       <c r="M4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426732015</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="O4" t="n">
         <v>8117.312426731974</v>
@@ -26475,7 +26475,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984469</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-664648.0961395942</v>
       </c>
       <c r="C6" t="n">
-        <v>450103.6874363257</v>
+        <v>450103.6874363252</v>
       </c>
       <c r="D6" t="n">
-        <v>450103.6874363255</v>
+        <v>450103.687436325</v>
       </c>
       <c r="E6" t="n">
-        <v>49170.66086906954</v>
+        <v>48823.28161471318</v>
       </c>
       <c r="F6" t="n">
-        <v>556656.1024936158</v>
+        <v>556308.7232392589</v>
       </c>
       <c r="G6" t="n">
-        <v>556656.1024936161</v>
+        <v>556308.723239259</v>
       </c>
       <c r="H6" t="n">
-        <v>556656.1024936159</v>
+        <v>556308.7232392587</v>
       </c>
       <c r="I6" t="n">
-        <v>556656.1024936159</v>
+        <v>556308.723239259</v>
       </c>
       <c r="J6" t="n">
-        <v>389050.9246836334</v>
+        <v>388703.5454292763</v>
       </c>
       <c r="K6" t="n">
-        <v>556656.1024936156</v>
+        <v>556308.7232392589</v>
       </c>
       <c r="L6" t="n">
-        <v>556656.1024936159</v>
+        <v>556308.7232392587</v>
       </c>
       <c r="M6" t="n">
-        <v>424048.8087646891</v>
+        <v>423701.4295103321</v>
       </c>
       <c r="N6" t="n">
-        <v>556656.1024936157</v>
+        <v>556308.7232392587</v>
       </c>
       <c r="O6" t="n">
-        <v>556656.1024936158</v>
+        <v>556308.7232392587</v>
       </c>
       <c r="P6" t="n">
-        <v>556656.1024936158</v>
+        <v>556308.7232392586</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175388</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.910608224135</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>68.09417367807686</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -27438,16 +27438,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>10.5319738833241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>107.191617065714</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>75.88999854998934</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>346.6535056760491</v>
       </c>
       <c r="H5" t="n">
-        <v>120.6010627874382</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -27672,19 +27672,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>67.36356122179892</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,7 +27827,7 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>115.3258519193762</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>28.19174596374478</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>284.0034790395505</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>115.3258519193759</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195737</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>42.31419777794355</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29523,7 +29523,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31044,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31144,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31235,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181058</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336176</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491898</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857141</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767378</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730001</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342221</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166591</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190642</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147049</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745093</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347159</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436492</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
-        <v>189.817847557584</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177241</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040585</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762069</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405672</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378623</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.318536019979</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000169</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231071</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335768</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682318</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227906</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154671</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169136</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759582</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523477</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069558</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024981</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,31 +31837,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>742.935485982477</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32101,7 +32101,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32320,10 +32320,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>242.2322097768141</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32332,13 +32332,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32560,19 +32560,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32794,7 +32794,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,31 +33022,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,34 +33259,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>610.054682604365</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>285.8867128925984</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33733,16 +33733,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,13 +33751,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33979,10 +33979,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>616.5397119226058</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33997,7 +33997,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34149,7 +34149,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>360.9226811202611</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34444,34 +34444,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34795,13 +34795,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>514.7099619750473</v>
+        <v>364.0350380248676</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34868,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34877,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000387</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>341.8791195350528</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225035</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407335</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067505</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457273</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376312</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949724</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637946</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402555</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939893</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560633</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L9" t="n">
-        <v>297.68036063785</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820402</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928737</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961228</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>388.6189266346388</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870588</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831068</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295068</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805397</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>611.5937738991437</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35749,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,10 +35968,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>103.6778299969399</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35980,13 +35980,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36208,19 +36208,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,7 +36442,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36612,7 +36612,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924728</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>471.5003028244908</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>151.9123054782682</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,13 +37399,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,10 +37627,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>477.9853321427316</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37645,7 +37645,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37797,7 +37797,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2856120.748089899</v>
+        <v>2857881.278392685</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12383593.48435851</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8775458.314079003</v>
+        <v>8775458.314079002</v>
       </c>
     </row>
     <row r="11">
@@ -664,7 +664,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>286.5888679426061</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>259.6580847920595</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -834,10 +834,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>28.90659665391124</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>69.63957399764195</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>64.89419709690489</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>195.9404637567457</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -952,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>144.8586974472234</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>171.1971464172148</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1150,10 +1150,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>272.8268065986606</v>
+        <v>202.3505290774039</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247041</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987943</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705011</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1302,10 +1302,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>50.98074812542834</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>196.4017961483601</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.33703994142957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
-        <v>119.6760079449695</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>18.70843787977262</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>140.575894358866</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>93.4044447618827</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>33.0162797694411</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>35.41770597126702</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>108.9065924712588</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>728.3028554854568</v>
+        <v>797.0848490996759</v>
       </c>
       <c r="C2" t="n">
-        <v>359.3403385450451</v>
+        <v>428.1223321592641</v>
       </c>
       <c r="D2" t="n">
-        <v>69.85663355251364</v>
+        <v>69.85663355251367</v>
       </c>
       <c r="E2" t="n">
-        <v>69.85663355251364</v>
+        <v>69.85663355251367</v>
       </c>
       <c r="F2" t="n">
-        <v>62.91113280331017</v>
+        <v>62.9111328033102</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056584</v>
+        <v>2300.058434670803</v>
       </c>
       <c r="W2" t="n">
-        <v>1878.50778578647</v>
+        <v>1947.289779400689</v>
       </c>
       <c r="X2" t="n">
-        <v>1505.04202752539</v>
+        <v>1573.824021139609</v>
       </c>
       <c r="Y2" t="n">
-        <v>1114.902695549579</v>
+        <v>1183.684689163798</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605188</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919905</v>
+        <v>717.852508549538</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.93511215121</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.220240748155</v>
+        <v>1659.793729425661</v>
       </c>
       <c r="O3" t="n">
-        <v>2062.290675924317</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.04689843412</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1011.026595295463</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C4" t="n">
-        <v>842.0904123675558</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D4" t="n">
-        <v>691.9737729552201</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E4" t="n">
-        <v>544.0606793728269</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>397.1707318749166</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>229.1842671831951</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H4" t="n">
-        <v>80.44536904670133</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T4" t="n">
-        <v>1413.467639269232</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="U4" t="n">
-        <v>1413.467639269232</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="V4" t="n">
-        <v>1413.467639269232</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="W4" t="n">
-        <v>1413.467639269232</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X4" t="n">
-        <v>1413.467639269232</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y4" t="n">
-        <v>1192.675060125702</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1217.629781995562</v>
+        <v>2188.873570139077</v>
       </c>
       <c r="C5" t="n">
-        <v>1217.629781995562</v>
+        <v>1819.911053198666</v>
       </c>
       <c r="D5" t="n">
-        <v>1217.629781995562</v>
+        <v>1461.645354591915</v>
       </c>
       <c r="E5" t="n">
-        <v>831.841529397318</v>
+        <v>1075.857101993671</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8556246077105</v>
+        <v>664.8711972040635</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>249.1664469283523</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362813</v>
+        <v>187.5281822362826</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764999</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.758267664335</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="V5" t="n">
-        <v>1977.695380320764</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="W5" t="n">
-        <v>1977.695380320764</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="X5" t="n">
-        <v>1604.229622059684</v>
+        <v>2188.873570139077</v>
       </c>
       <c r="Y5" t="n">
-        <v>1604.229622059684</v>
+        <v>2188.873570139077</v>
       </c>
     </row>
     <row r="6">
@@ -4640,25 +4640,25 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>614.5430248380219</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>909.2465818694938</v>
       </c>
       <c r="M6" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
         <v>1991.864164601821</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>833.0891146802707</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C7" t="n">
-        <v>664.1529317523638</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D7" t="n">
-        <v>514.036292340028</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E7" t="n">
-        <v>366.1231987576349</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312205</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="W7" t="n">
-        <v>1463.519709552058</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="X7" t="n">
-        <v>1235.53015865404</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="Y7" t="n">
-        <v>1014.73757951051</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1118.442187461269</v>
+        <v>1113.627677513</v>
       </c>
       <c r="C8" t="n">
-        <v>749.4796705208578</v>
+        <v>744.6651605725888</v>
       </c>
       <c r="D8" t="n">
-        <v>749.4796705208578</v>
+        <v>744.6651605725888</v>
       </c>
       <c r="E8" t="n">
-        <v>749.4796705208578</v>
+        <v>744.6651605725888</v>
       </c>
       <c r="F8" t="n">
-        <v>742.5341697716543</v>
+        <v>737.7196598233853</v>
       </c>
       <c r="G8" t="n">
-        <v>326.8294194959432</v>
+        <v>322.0149095476742</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362818</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816093</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872922</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230818</v>
@@ -4822,34 +4822,34 @@
         <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764999</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400156</v>
+        <v>2184.059060190807</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056585</v>
+        <v>1852.996172847236</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.507785786471</v>
+        <v>1500.227517577122</v>
       </c>
       <c r="X8" t="n">
-        <v>1505.042027525391</v>
+        <v>1500.227517577122</v>
       </c>
       <c r="Y8" t="n">
-        <v>1505.042027525391</v>
+        <v>1500.227517577122</v>
       </c>
     </row>
     <row r="9">
@@ -4880,22 +4880,22 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380226</v>
+        <v>614.5430248380217</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>909.2465818694936</v>
       </c>
       <c r="M9" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
         <v>1991.864164601821</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657496</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C10" t="n">
-        <v>547.6621722378427</v>
+        <v>349.276519562732</v>
       </c>
       <c r="D10" t="n">
-        <v>397.5455328255069</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E10" t="n">
-        <v>249.6324392431138</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="F10" t="n">
-        <v>102.7424917452035</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312208</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693238</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096592</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4983,31 +4983,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>1438.060467399387</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037537</v>
+        <v>1148.643297362426</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.039399139519</v>
+        <v>920.6537464644088</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959893</v>
+        <v>699.8611673208786</v>
       </c>
     </row>
     <row r="11">
@@ -5035,13 +5035,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5068,25 +5068,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803937</v>
@@ -5132,7 +5132,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5293,34 +5293,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803937</v>
@@ -5415,25 +5415,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5506,19 +5506,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5603,10 +5603,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="20">
@@ -5734,28 +5734,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5791,10 +5791,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>642.8692823226941</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>473.9330993947872</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>323.8164599824514</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2326.07822707019</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2106.476762093131</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1817.401535437329</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1562.717047231442</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1273.299877194481</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1045.310326296464</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>824.5177471529338</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5968,28 +5968,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6010,28 +6010,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6180,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,31 +6223,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>869.9745311434712</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>701.0383482155643</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>550.9217088032285</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>403.0086152208354</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1051.622995973711</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6502,10 +6502,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6715,37 +6715,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>526.5658826424041</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>376.4492432300683</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>376.4492432300683</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>376.4492432300683</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>209.2531439449482</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6919,13 +6919,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7077,16 +7077,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7162,22 +7162,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7262,7 +7262,7 @@
         <v>245.2306927803937</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2411.187623003223</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2191.586158026164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2336.956424518383</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2117.354959541324</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1828.279732885522</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8060,13 +8060,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>193.3273467878354</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>114.3555089013353</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.327346787835</v>
+        <v>193.327346787834</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878349</v>
+        <v>193.3273467878337</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154983</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>25.7450400779617</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
-        <v>61.35027805667508</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>127.7255247667966</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>4.845153664065208</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>107.2784330767828</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>145.6085800303776</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>72.11969353038577</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>753929.9322934035</v>
+        <v>753929.9322934034</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>753929.9322934034</v>
+        <v>753929.9322934035</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>753929.9322934034</v>
+        <v>753929.9322934035</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>753929.9322934035</v>
+        <v>753929.9322934034</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>753929.9322934035</v>
+        <v>753929.9322934034</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>753929.9322934037</v>
+        <v>753929.9322934034</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>753929.9322934035</v>
+        <v>753929.9322934034</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>753929.9322934034</v>
+        <v>753929.9322934035</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>753929.9322934035</v>
+        <v>753929.9322934034</v>
       </c>
     </row>
   </sheetData>
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>677359.4601380341</v>
+      </c>
+      <c r="C2" t="n">
         <v>677359.4601380337</v>
       </c>
-      <c r="C2" t="n">
-        <v>677359.4601380336</v>
-      </c>
       <c r="D2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="F2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="G2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="H2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="I2" t="n">
         <v>665895.9447442547</v>
-      </c>
-      <c r="I2" t="n">
-        <v>665895.9447442549</v>
       </c>
       <c r="J2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="K2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="L2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="M2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="N2" t="n">
         <v>665895.9447442547</v>
@@ -26355,7 +26355,7 @@
         <v>665895.9447442547</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442546</v>
+        <v>665895.9447442545</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.4416245453</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289265</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618636</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618636</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732025</v>
       </c>
       <c r="G4" t="n">
         <v>8117.312426731974</v>
@@ -26447,7 +26447,7 @@
         <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426732038</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
         <v>8117.312426731974</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984476</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.77243984475</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-664648.0961395942</v>
       </c>
       <c r="C6" t="n">
+        <v>450103.6874363254</v>
+      </c>
+      <c r="D6" t="n">
         <v>450103.6874363252</v>
       </c>
-      <c r="D6" t="n">
-        <v>450103.687436325</v>
-      </c>
       <c r="E6" t="n">
-        <v>48823.28161471318</v>
+        <v>49135.92294363513</v>
       </c>
       <c r="F6" t="n">
-        <v>556308.7232392589</v>
+        <v>556621.3645681801</v>
       </c>
       <c r="G6" t="n">
-        <v>556308.723239259</v>
+        <v>556621.3645681802</v>
       </c>
       <c r="H6" t="n">
-        <v>556308.7232392587</v>
+        <v>556621.3645681802</v>
       </c>
       <c r="I6" t="n">
-        <v>556308.723239259</v>
+        <v>556621.3645681801</v>
       </c>
       <c r="J6" t="n">
-        <v>388703.5454292763</v>
+        <v>389016.1867581974</v>
       </c>
       <c r="K6" t="n">
-        <v>556308.7232392589</v>
+        <v>556621.3645681801</v>
       </c>
       <c r="L6" t="n">
-        <v>556308.7232392587</v>
+        <v>556621.3645681802</v>
       </c>
       <c r="M6" t="n">
-        <v>423701.4295103321</v>
+        <v>424014.0708392534</v>
       </c>
       <c r="N6" t="n">
-        <v>556308.7232392587</v>
+        <v>556621.3645681801</v>
       </c>
       <c r="O6" t="n">
-        <v>556308.7232392587</v>
+        <v>556621.3645681801</v>
       </c>
       <c r="P6" t="n">
-        <v>556308.7232392586</v>
+        <v>556621.3645681798</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175397</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000393</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>433.9106082241341</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.123455999609</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.123455999609</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.123455999609</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>68.09417367807686</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27399,7 +27399,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>68.09417367807544</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>75.88999854998934</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>151.10912199957</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>346.6535056760491</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>105.0780888056597</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,10 +27672,10 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,7 +27827,7 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>75.88999854998855</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>115.3258519193762</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>28.19174596374478</v>
+        <v>98.66802348500147</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28022,10 +28022,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>115.3258519193759</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
@@ -28070,7 +28070,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>55.73584717546785</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,25 +31205,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,25 +31442,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181061</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.4562495533618</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491901</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857145</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767384</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730007</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342228</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166598</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190647</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147053</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235313</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745102</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436497</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575842</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.428935217844</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177246</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.065366204059</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762074</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405677</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378627</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.4624964168762</v>
       </c>
       <c r="R9" t="n">
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997904</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000176</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31676,46 +31676,46 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231073</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0856174753788</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227909</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.755972606796</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154674</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169138</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097485</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.7358189575959</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.3541376752348</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069565</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024989</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31852,10 +31852,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -32323,13 +32323,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33982,10 +33982,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>601.0567753070492</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34389,10 +34389,10 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>560.2586790698761</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>364.0350380248676</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313198</v>
+        <v>379.9148430313189</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225039</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.564649540734</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067511</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.005010945728</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376319</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949731</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637952</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402559</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939915</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313197</v>
+        <v>379.9148430313186</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378504</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820407</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928741</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961232</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235325</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667038</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870599</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.4247593423492</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860246</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.6644876295071</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818073</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805409</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35433,7 +35433,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35500,10 +35500,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35971,13 +35971,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36612,7 +36612,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924728</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37630,10 +37630,10 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>469.7150632237159</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38037,10 +38037,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
